--- a/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Sarvodya High SchoolShorapur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Dr. B S A AidedHigh SchoolShorapur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. High School RajanakolurShorapur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Sagaranadu H S PetammapurShorapur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -592,6 +617,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S DoranahalliShahapur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -619,6 +649,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S Konkal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -646,6 +681,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H P School KurekuppaSandur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -673,6 +713,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S talur siruguppa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -700,6 +745,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sri Agasara Dyavappa Govt High School Karur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Siruguppa</t>
         </is>
       </c>
@@ -727,6 +777,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G C P U CollegeEmmiganuree</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -754,6 +809,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S V G P U College HolaluHadagali</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -781,6 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G M H P School KogaliHagari Bommanahalli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -808,6 +873,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School SirigeriSiruguppa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -837,6 +907,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H P S PoojarahalliKudligi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -864,6 +939,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S GudekoteKudligi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -893,6 +973,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G M H P S Vinobha Bhave ChithwadiHospet</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -920,6 +1005,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S – Radio park</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -949,6 +1039,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H P S G N Hally</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -976,6 +1071,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H P S KarchiganurSiruguppa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1005,6 +1105,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA)Hospet</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1032,6 +1137,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Govt. P U College High School sectionMariyamanahalliHospet</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1059,6 +1169,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. High School RaraviSiruguppa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1086,6 +1201,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High SchoolRavihalSiraguppa</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1112,6 +1232,11 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>MPM G H SAdavimallanakeriHoovinahadagali</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Bellary</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Siruguppa</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-27)_24_3.xlsx
@@ -944,7 +944,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
